--- a/data/getapi.xlsx
+++ b/data/getapi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
   <si>
     <t>URL</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>获取订单物流信息</t>
+  </si>
+  <si>
+    <t>guest.category.getCategoryList</t>
+  </si>
+  <si>
+    <t>获取平台商品分类列表</t>
   </si>
   <si>
     <t>id</t>
@@ -420,7 +426,7 @@
     <t>{'storeid':'338958','price':'不可为空'}</t>
   </si>
   <si>
-    <t>{'cartId':'17596967',
+    <t>{
 'quantity':'3'}</t>
   </si>
   <si>
@@ -442,26 +448,21 @@
     <t>msg=购买数量不能为0</t>
   </si>
   <si>
-    <t>{'cartidList':'[17597757]'}</t>
-  </si>
-  <si>
     <t>{'cartidList':'[17597757]'}不存在</t>
   </si>
   <si>
     <t>"msg": "参数异常"</t>
   </si>
   <si>
-    <t>{'cartId':'17597756'}</t>
-  </si>
-  <si>
     <t>{'cartId':'[17597757]'}不存在</t>
   </si>
   <si>
-    <t>{'addressid':'2231220',
-'cartids':'17597753'}</t>
-  </si>
-  <si>
     <t>{'data_info':'{\"cartids\":\"17597753\",\"packageids\":\"\",\"request_os\":\"ios\",\"use_point\":\"0\",\"platform_coupon_id\":\"\",\"use_balance\":\"0.00\",\"addressid\":\"2231220\",\"all_order_price_total\":\"153.00\",\"shop_list\":{\"351879\":{\"packageid\":\"8133\",\"logisticsid\":\"0\",\"couponsid\":\"7850427\",\"rx_image\":\"\",\"rx_content\":\"\",\"no_rx_reason\":\"\",\"dict_bool_etax\":0,\"invoice_idcard\":\"\",\"invoice_name\":\"\",\"invoice_type\":\"0\"}},\"medicate_name\":\"\",\"medicate_idcard\":\"\",\"medicate_sex\":\"\",\"rx_info\":null}'}</t>
+  </si>
+  <si>
+    <t>dict_bool_etax=0 不需要
+dict_bool_etax=1电子发票
+dict_bool_etax=2纸质发票</t>
   </si>
   <si>
     <t>{'ordernos':'C2011181045476290'}</t>
@@ -499,7 +500,7 @@
     <t>{'data_info':'{\"cartids\":\"42336884\",\"packageids\":\"\",\"rx_upload_type\":2,\"drugid\":761304,\"rx_image\":\"\",\"diseaselist\":\"[{\\\"id\\\":1225,\\\"name\\\":\\\"糖尿病\\\",\\\"namecn\\\":\\\"阿卡波糖片\\\"}]\",\"case_url\":\"\"}'}</t>
   </si>
   <si>
-    <t>{'orderno':'C2011181738382585'}</t>
+    <t>{'orderno':'C2012021503384137'}</t>
   </si>
   <si>
     <t>未发货订单</t>
@@ -509,6 +510,9 @@
   </si>
   <si>
     <t>{'orderno':'C2007291550013607'}</t>
+  </si>
+  <si>
+    <t>{'orderno':'C2011251513515058'}</t>
   </si>
 </sst>
 </file>
@@ -516,9 +520,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -551,8 +555,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,14 +614,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -581,7 +622,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,7 +630,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,44 +646,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,14 +654,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,9 +676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,31 +692,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,151 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,45 +891,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,6 +912,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -956,11 +939,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,10 +991,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -999,16 +1003,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,116 +1024,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,6 +1144,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1505,17 +1512,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="46" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="2:4">
@@ -1533,10 +1540,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1550,10 +1557,10 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1567,10 +1574,10 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1584,10 +1591,10 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1601,10 +1608,10 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1618,10 +1625,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1635,10 +1642,10 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1652,10 +1659,10 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
@@ -1669,10 +1676,10 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
@@ -1686,10 +1693,10 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
@@ -1703,10 +1710,10 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
@@ -1720,10 +1727,10 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
@@ -1737,10 +1744,10 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
@@ -1754,10 +1761,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
@@ -1771,10 +1778,10 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
@@ -1788,10 +1795,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D17" t="s">
@@ -1802,13 +1809,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
@@ -1819,13 +1826,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
@@ -1836,13 +1843,13 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
@@ -1853,13 +1860,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D21" t="s">
@@ -1870,13 +1877,13 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D22" t="s">
@@ -1887,13 +1894,13 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D23" t="s">
@@ -1904,13 +1911,13 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D24" t="s">
@@ -1921,13 +1928,13 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D25" t="s">
@@ -1938,13 +1945,13 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D26" t="s">
@@ -1955,13 +1962,13 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D27" t="s">
@@ -1972,13 +1979,13 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D28" t="s">
@@ -1989,13 +1996,13 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D29" t="s">
@@ -2006,13 +2013,13 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
@@ -2023,13 +2030,13 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D31" t="s">
@@ -2040,13 +2047,13 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D32" t="s">
@@ -2057,13 +2064,13 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D33" t="s">
@@ -2074,13 +2081,13 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D34" t="s">
@@ -2091,13 +2098,13 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D35" t="s">
@@ -2108,13 +2115,13 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D36" t="s">
@@ -2125,13 +2132,13 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D37" t="s">
@@ -2142,13 +2149,13 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>77</v>
       </c>
       <c r="D38" t="s">
@@ -2159,13 +2166,13 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D39" t="s">
@@ -2176,13 +2183,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D40" t="s">
@@ -2193,13 +2200,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D41" t="s">
@@ -2210,13 +2217,13 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D42" t="s">
@@ -2224,6 +2231,23 @@
       </c>
       <c r="E42" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2268,6 +2292,7 @@
     <hyperlink ref="B40" r:id="rId1" display="http://192.168.2.252:18080/4000/4000/0/" tooltip="http://192.168.2.252:18080/4000/4000/0/"/>
     <hyperlink ref="B41" r:id="rId1" display="http://192.168.2.252:18080/4000/4000/0/"/>
     <hyperlink ref="B42" r:id="rId1" display="http://192.168.2.252:18080/4000/4000/0/"/>
+    <hyperlink ref="B43" r:id="rId1" display="http://192.168.2.252:18080/4000/4000/0/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2278,10 +2303,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2294,13 +2319,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" ht="199.5" spans="1:3">
@@ -2311,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="185.25" spans="1:3">
@@ -2322,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="162" spans="1:3">
@@ -2333,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:3">
@@ -2344,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:3">
@@ -2355,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:3">
@@ -2366,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:3">
@@ -2377,7 +2402,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:3">
@@ -2388,7 +2413,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:3">
@@ -2399,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2410,7 +2435,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2421,7 +2446,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2432,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2443,7 +2468,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2454,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2465,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2476,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" ht="81" spans="1:6">
@@ -2487,16 +2512,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:3">
@@ -2507,7 +2532,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" ht="67.5" spans="1:3">
@@ -2518,7 +2543,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:3">
@@ -2529,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="54" spans="1:3">
@@ -2540,7 +2565,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="54" spans="1:3">
@@ -2551,7 +2576,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2562,7 +2587,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2573,7 +2598,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2584,7 +2609,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" ht="94.5" spans="1:8">
@@ -2595,19 +2620,19 @@
         <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2618,13 +2643,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2635,16 +2660,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2652,10 +2677,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" ht="138" customHeight="1" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="138" customHeight="1" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2663,6 +2688,9 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2713,7 +2741,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2724,7 +2752,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
@@ -2746,7 +2774,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" ht="108" spans="1:5">
@@ -2782,7 +2810,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2819,6 +2847,28 @@
       </c>
       <c r="C44" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/getapi.xlsx
+++ b/data/getapi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="134">
   <si>
     <t>URL</t>
   </si>
@@ -460,15 +460,10 @@
     <t>{'data_info':'{\"cartids\":\"17597753\",\"packageids\":\"\",\"request_os\":\"ios\",\"use_point\":\"0\",\"platform_coupon_id\":\"\",\"use_balance\":\"0.00\",\"addressid\":\"2231220\",\"all_order_price_total\":\"153.00\",\"shop_list\":{\"351879\":{\"packageid\":\"8133\",\"logisticsid\":\"0\",\"couponsid\":\"7850427\",\"rx_image\":\"\",\"rx_content\":\"\",\"no_rx_reason\":\"\",\"dict_bool_etax\":0,\"invoice_idcard\":\"\",\"invoice_name\":\"\",\"invoice_type\":\"0\"}},\"medicate_name\":\"\",\"medicate_idcard\":\"\",\"medicate_sex\":\"\",\"rx_info\":null}'}</t>
   </si>
   <si>
-    <t>dict_bool_etax=0 不需要
+    <t>dict_bool_etax=0 纸质发票
 dict_bool_etax=1电子发票
-dict_bool_etax=2纸质发票</t>
-  </si>
-  <si>
-    <t>{'ordernos':'C2011181045476290'}</t>
-  </si>
-  <si>
-    <t>{'orderno':'C2011181104128819'}</t>
+invoice_type=0不要发票
+invoice_type=1 要发票</t>
   </si>
   <si>
     <t>不存在的、别人的订单号</t>
@@ -487,11 +482,7 @@
 return_goods 退货款</t>
   </si>
   <si>
-    <t>{'ordernoList':'C2011181738382585',
-'type':'alipay'}</t>
-  </si>
-  <si>
-    <t>{'data':'{\"real_name\":\"黄凤雅\",\"idcard_no\":\"32068419920825136\",\"birthday\":\"1992-08-25\",\"dict_sex\":\"0\",\"weight\":\"\",\"mobile\":\"17521558586\",\"dict_bool_medical_history\":\"0\",\"medical_history\":\"\",\"allergy_history\":\"\",\"family_history\":\"\",\"dict_bool_allergy_history\":\"0\",\"dict_bool_family_history\":\"0\",\"dict_bool_liver\":\"0\",\"dict_bool_renal\":\"0\",\"dict_bool_nurse\":\"0\",\"relation_label\":\"本人\",\"dict_bool_default\":\"0\"}'}</t>
+    <t>{'type':'alipay'}</t>
   </si>
   <si>
     <t>身份证错误，缺少手机、姓名，是否本人</t>
@@ -521,8 +512,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -555,26 +546,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,6 +590,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -600,29 +605,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,15 +615,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,23 +652,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -677,7 +660,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,13 +683,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,31 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,133 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,15 +874,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -928,12 +910,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -954,32 +964,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,16 +994,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,116 +1015,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,9 +1135,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1515,14 +1503,14 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="$A30:$XFD30"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="2:4">
@@ -1540,10 +1528,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1557,10 +1545,10 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1574,10 +1562,10 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1591,10 +1579,10 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1608,10 +1596,10 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1625,10 +1613,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1642,10 +1630,10 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1659,10 +1647,10 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
@@ -1676,10 +1664,10 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
@@ -1693,10 +1681,10 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
@@ -1710,10 +1698,10 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
@@ -1727,10 +1715,10 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
@@ -1744,10 +1732,10 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
@@ -1761,10 +1749,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
@@ -1778,10 +1766,10 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
@@ -1795,10 +1783,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D17" t="s">
@@ -1809,13 +1797,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
@@ -1826,13 +1814,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
@@ -1843,13 +1831,13 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
@@ -1860,13 +1848,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D21" t="s">
@@ -1877,13 +1865,13 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D22" t="s">
@@ -1894,13 +1882,13 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D23" t="s">
@@ -1911,13 +1899,13 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D24" t="s">
@@ -1928,13 +1916,13 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D25" t="s">
@@ -1945,13 +1933,13 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D26" t="s">
@@ -1962,13 +1950,13 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D27" t="s">
@@ -1979,13 +1967,13 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D28" t="s">
@@ -1996,13 +1984,13 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D29" t="s">
@@ -2013,13 +2001,13 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
@@ -2030,13 +2018,13 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D31" t="s">
@@ -2047,13 +2035,13 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D32" t="s">
@@ -2064,13 +2052,13 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D33" t="s">
@@ -2081,13 +2069,13 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D34" t="s">
@@ -2098,13 +2086,13 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D35" t="s">
@@ -2115,13 +2103,13 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D36" t="s">
@@ -2132,13 +2120,13 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D37" t="s">
@@ -2149,13 +2137,13 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D38" t="s">
@@ -2166,13 +2154,13 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D39" t="s">
@@ -2183,13 +2171,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D40" t="s">
@@ -2200,13 +2188,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D41" t="s">
@@ -2217,13 +2205,13 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D42" t="s">
@@ -2234,13 +2222,13 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D43" t="s">
@@ -2305,8 +2293,8 @@
   <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2690,7 +2678,7 @@
       <c r="C31" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2702,7 +2690,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2713,10 +2701,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" ht="94.5" spans="1:5">
@@ -2727,10 +2715,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2755,7 +2743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2763,7 +2751,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2777,7 +2765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" ht="108" spans="1:5">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2785,10 +2773,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2799,7 +2787,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2821,10 +2809,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2835,7 +2823,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2846,7 +2834,7 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2857,7 +2845,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3">
